--- a/CashFlow/JCI_cashflow.xlsx
+++ b/CashFlow/JCI_cashflow.xlsx
@@ -75,8 +75,8 @@
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="28.6"/>
     <col min="2" max="2" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="16.5"/>
-    <col min="4" max="4" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="4" max="4" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="6" max="6" bestFit="1" customWidth="1" width="16.5"/>
     <col min="7" max="7" bestFit="1" customWidth="1" width="16.5"/>
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-228000000.0</v>
+        <v>-283000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>-159000000.0</v>
@@ -516,7 +516,7 @@
         <v>1237000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>1017000000.0</v>
+        <v>1072000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>1440000000.0</v>
@@ -758,22 +758,22 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>5569000000.0</v>
+        <v>95000000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>7712000000.0</v>
+        <v>61000000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>7752000000.0</v>
+        <v>45000000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>6196000000.0</v>
+        <v>12000000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>4232000000.0</v>
+        <v>-12000000.0</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>2103000000.0</v>
+        <v>36000000.0</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>-72000000.0</v>
@@ -1050,22 +1050,22 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>9806000000.0</v>
+        <v>402000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>12506000000.0</v>
+        <v>-128000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>12632000000.0</v>
+        <v>-717000000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>9604000000.0</v>
+        <v>-639000000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>6528000000.0</v>
+        <v>-532000000.0</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>3618000000.0</v>
+        <v>-216000000.0</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>56000000.0</v>
@@ -1183,16 +1183,16 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
-        <v>393000000.0</v>
+        <v>1035000000.0</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>529000000.0</v>
+        <v>1171000000.0</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>1031000000.0</v>
+        <v>1673000000.0</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>-360000000.0</v>
+        <v>282000000.0</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>-41000000.0</v>
@@ -1590,7 +1590,7 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>-283000000.0</v>
+        <v>-229000000.0</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>-248000000.0</v>
@@ -2034,10 +2034,8 @@
           <t>Long-Term Investments Change (Net)</t>
         </is>
       </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B15" s="0" t="n">
+        <v>26000000.0</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>19000000.0</v>
@@ -3097,7 +3095,7 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>268000000.0</v>
+        <v>231000000.0</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>205000000.0</v>
@@ -3365,7 +3363,7 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>866000000.0</v>
+        <v>875000000.0</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>-328000000.0</v>
@@ -3491,10 +3489,8 @@
           <t>Beginning Cash</t>
         </is>
       </c>
-      <c r="B26" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B26" s="0" t="n">
+        <v>1960000000.0</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>1960000000.0</v>
@@ -3620,10 +3616,8 @@
           <t>Ending Cash</t>
         </is>
       </c>
-      <c r="B27" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B27" s="0" t="n">
+        <v>2835000000.0</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>1632000000.0</v>
@@ -3749,10 +3743,8 @@
           <t>Stock Based Compensation</t>
         </is>
       </c>
-      <c r="B28" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B28" s="0" t="n">
+        <v>68000000.0</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>73000000.0</v>
@@ -4132,10 +4124,8 @@
           <t>Investments Change (Net)</t>
         </is>
       </c>
-      <c r="B31" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B31" s="0" t="n">
+        <v>26000000.0</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>19000000.0</v>
@@ -4404,10 +4394,8 @@
           <t>Capital Stock Change</t>
         </is>
       </c>
-      <c r="B33" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B33" s="0" t="n">
+        <v>-1229000000.0</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>-1814000000.0</v>
